--- a/docs/excel/THundredWarCardType.xlsx
+++ b/docs/excel/THundredWarCardType.xlsx
@@ -96,7 +96,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>float64</t>
+    <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
